--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H2">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I2">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J2">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.374092</v>
+        <v>21.602164</v>
       </c>
       <c r="N2">
-        <v>55.122276</v>
+        <v>64.80649199999999</v>
       </c>
       <c r="O2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="P2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="Q2">
-        <v>2.570590593076</v>
+        <v>0.2067039065946666</v>
       </c>
       <c r="R2">
-        <v>23.135315337684</v>
+        <v>1.860335159352</v>
       </c>
       <c r="S2">
-        <v>0.04924985208784456</v>
+        <v>0.004424883049909119</v>
       </c>
       <c r="T2">
-        <v>0.04924985208784455</v>
+        <v>0.004424883049909119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H3">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I3">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J3">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>61.56292500000001</v>
       </c>
       <c r="O3">
-        <v>0.2763818225793275</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="P3">
-        <v>0.2763818225793274</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="Q3">
-        <v>2.870945965425001</v>
+        <v>0.19635836945</v>
       </c>
       <c r="R3">
-        <v>25.838513688825</v>
+        <v>1.76722532505</v>
       </c>
       <c r="S3">
-        <v>0.05500434979036549</v>
+        <v>0.004203417511556193</v>
       </c>
       <c r="T3">
-        <v>0.05500434979036548</v>
+        <v>0.004203417511556195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H4">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I4">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J4">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.177119333333334</v>
+        <v>11.57857933333334</v>
       </c>
       <c r="N4">
-        <v>21.531358</v>
+        <v>34.735738</v>
       </c>
       <c r="O4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="P4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806404</v>
       </c>
       <c r="Q4">
-        <v>1.004100526091333</v>
+        <v>0.1107915661142222</v>
       </c>
       <c r="R4">
-        <v>9.036904734822</v>
+        <v>0.9971240950280001</v>
       </c>
       <c r="S4">
-        <v>0.01923752561941435</v>
+        <v>0.002371700327527127</v>
       </c>
       <c r="T4">
-        <v>0.01923752561941435</v>
+        <v>0.002371700327527127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H5">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I5">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J5">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.17645566666667</v>
+        <v>32.55301433333333</v>
       </c>
       <c r="N5">
-        <v>84.52936700000001</v>
+        <v>97.659043</v>
       </c>
       <c r="O5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="P5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326824</v>
       </c>
       <c r="Q5">
-        <v>3.941970677133667</v>
+        <v>0.3114889431508888</v>
       </c>
       <c r="R5">
-        <v>35.477736094203</v>
+        <v>2.803400488358</v>
       </c>
       <c r="S5">
-        <v>0.07552407345859828</v>
+        <v>0.00666800239767716</v>
       </c>
       <c r="T5">
-        <v>0.07552407345859828</v>
+        <v>0.006668002397677164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.539357</v>
       </c>
       <c r="I6">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J6">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.374092</v>
+        <v>21.602164</v>
       </c>
       <c r="N6">
-        <v>55.122276</v>
+        <v>64.80649199999999</v>
       </c>
       <c r="O6">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="P6">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="Q6">
-        <v>9.428095712948</v>
+        <v>11.084480789516</v>
       </c>
       <c r="R6">
-        <v>84.85286141653201</v>
+        <v>99.76032710564398</v>
       </c>
       <c r="S6">
-        <v>0.1806325443590396</v>
+        <v>0.2372840067253868</v>
       </c>
       <c r="T6">
-        <v>0.1806325443590396</v>
+        <v>0.2372840067253868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.539357</v>
       </c>
       <c r="I7">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J7">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>61.56292500000001</v>
       </c>
       <c r="O7">
-        <v>0.2763818225793275</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="P7">
-        <v>0.2763818225793274</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="Q7">
         <v>10.529702171025</v>
       </c>
       <c r="R7">
-        <v>94.76731953922501</v>
+        <v>94.767319539225</v>
       </c>
       <c r="S7">
-        <v>0.2017381825985329</v>
+        <v>0.2254079345898631</v>
       </c>
       <c r="T7">
-        <v>0.2017381825985329</v>
+        <v>0.2254079345898631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.539357</v>
       </c>
       <c r="I8">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J8">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.177119333333334</v>
+        <v>11.57857933333334</v>
       </c>
       <c r="N8">
-        <v>21.531358</v>
+        <v>34.735738</v>
       </c>
       <c r="O8">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="P8">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806404</v>
       </c>
       <c r="Q8">
-        <v>3.682716295200667</v>
+        <v>5.941189048940668</v>
       </c>
       <c r="R8">
-        <v>33.144446656806</v>
+        <v>53.470701440466</v>
       </c>
       <c r="S8">
-        <v>0.07055702814312967</v>
+        <v>0.1271822441678107</v>
       </c>
       <c r="T8">
-        <v>0.07055702814312968</v>
+        <v>0.1271822441678108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.539357</v>
       </c>
       <c r="I9">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J9">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.17645566666667</v>
+        <v>32.55301433333333</v>
       </c>
       <c r="N9">
-        <v>84.52936700000001</v>
+        <v>97.659043</v>
       </c>
       <c r="O9">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="P9">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326824</v>
       </c>
       <c r="Q9">
-        <v>14.45787475522433</v>
+        <v>16.70357016170566</v>
       </c>
       <c r="R9">
-        <v>130.120872797019</v>
+        <v>150.332131455351</v>
       </c>
       <c r="S9">
-        <v>0.2769978988942517</v>
+        <v>0.3575711059319</v>
       </c>
       <c r="T9">
-        <v>0.2769978988942517</v>
+        <v>0.3575711059319001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H10">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I10">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J10">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.374092</v>
+        <v>21.602164</v>
       </c>
       <c r="N10">
-        <v>55.122276</v>
+        <v>64.80649199999999</v>
       </c>
       <c r="O10">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="P10">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="Q10">
-        <v>0.9178287682813333</v>
+        <v>0.408151286616</v>
       </c>
       <c r="R10">
-        <v>8.260458914532</v>
+        <v>3.673361579544</v>
       </c>
       <c r="S10">
-        <v>0.01758464813556088</v>
+        <v>0.008737240334248893</v>
       </c>
       <c r="T10">
-        <v>0.01758464813556088</v>
+        <v>0.008737240334248894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H11">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I11">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J11">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>61.56292500000001</v>
       </c>
       <c r="O11">
-        <v>0.2763818225793275</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="P11">
-        <v>0.2763818225793274</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="Q11">
-        <v>1.025070583525</v>
+        <v>0.3877233016500001</v>
       </c>
       <c r="R11">
-        <v>9.225635251725</v>
+        <v>3.48950971485</v>
       </c>
       <c r="S11">
-        <v>0.01963929019042908</v>
+        <v>0.008299941175713378</v>
       </c>
       <c r="T11">
-        <v>0.01963929019042908</v>
+        <v>0.00829994117571338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H12">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I12">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J12">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.177119333333334</v>
+        <v>11.57857933333334</v>
       </c>
       <c r="N12">
-        <v>21.531358</v>
+        <v>34.735738</v>
       </c>
       <c r="O12">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="P12">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806404</v>
       </c>
       <c r="Q12">
-        <v>0.3585138573117778</v>
+        <v>0.2187656779240001</v>
       </c>
       <c r="R12">
-        <v>3.226624715806</v>
+        <v>1.968891101316</v>
       </c>
       <c r="S12">
-        <v>0.006868754009917766</v>
+        <v>0.004683087785302466</v>
       </c>
       <c r="T12">
-        <v>0.006868754009917767</v>
+        <v>0.004683087785302468</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H13">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I13">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J13">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.17645566666667</v>
+        <v>32.55301433333333</v>
       </c>
       <c r="N13">
-        <v>84.52936700000001</v>
+        <v>97.659043</v>
       </c>
       <c r="O13">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="P13">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326824</v>
       </c>
       <c r="Q13">
-        <v>1.407479705613222</v>
+        <v>0.615056652814</v>
       </c>
       <c r="R13">
-        <v>12.667317350519</v>
+        <v>5.535509875326</v>
       </c>
       <c r="S13">
-        <v>0.02696585271291576</v>
+        <v>0.01316643600310517</v>
       </c>
       <c r="T13">
-        <v>0.02696585271291577</v>
+        <v>0.01316643600310517</v>
       </c>
     </row>
   </sheetData>
